--- a/biology/Médecine/Ventilation_mécanique_en_médecine/Ventilation_mécanique_en_médecine.xlsx
+++ b/biology/Médecine/Ventilation_mécanique_en_médecine/Ventilation_mécanique_en_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
+          <t>Ventilation_mécanique_en_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La ventilation mécanique (VM) en médecine est une ventilation artificielle (en opposition à la ventilation spontanée) qui consiste à suppléer ou assister la respiration spontanée à l'aide d'un respirateur artificiel, communément appelé « ventilateur » par les professionnels de santé. Elle se pratique le plus souvent dans un contexte de soins critiques (médecine d'urgence ou réanimation) et d'anesthésie, mais peut aussi être dispensée à domicile chez des patients porteurs d'une insuffisance respiratoire chronique. La VM est qualifiée d’« invasive » si elle se fait par une interface pénétrant dans les voies aériennes par la bouche (sonde d'intubation endotrachéale) ou par la peau (tube de trachéotomie). La « ventilation non invasive » (VNI) implique quant à elle un masque étanche (facial ou nasal).
 Il existe deux principaux types de ventilation mécanique : la ventilation à pression positive, où de l'air (ou un mélange de gaz) est « poussé » dans la trachée, et la ventilation à pression négative où l'air est « aspiré » par les poumons. Si le second type a constitué les débuts de la VM et reste toujours, quoique rarement, utilisé aujourd'hui, la grande majorité des ventilateurs sont en pression positive. Il existe de nombreux modes ventilatoires, dont la nomenclature et les caractéristiques évoluent rapidement à mesure que la technologie médicale continue à se développer, tendant même ces dernières années vers des algorithmes automatisés (plutôt que pré-réglés) qui s'adaptent en continu à l'effort ventilatoire du patient.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
+          <t>Ventilation_mécanique_en_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Indications
-La ventilation mécanique est indiquée chez les patients dont la ventilation spontanée est insuffisante pour les maintenir en vie. Elle est aussi utilisée comme prophylaxie avant un effondrement imminent des autres fonctions physiologiques (avant une anesthésie) ou dans le cas où les échanges gazeux deviennent inefficaces. En théorie, étant donné que la ventilation mécanique est une suppléance d'organe temporaire et ne traite pas à proprement parler une maladie, la situation du patient doit être réversible pour en justifier l'initiation.
+          <t>Indications</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La ventilation mécanique est indiquée chez les patients dont la ventilation spontanée est insuffisante pour les maintenir en vie. Elle est aussi utilisée comme prophylaxie avant un effondrement imminent des autres fonctions physiologiques (avant une anesthésie) ou dans le cas où les échanges gazeux deviennent inefficaces. En théorie, étant donné que la ventilation mécanique est une suppléance d'organe temporaire et ne traite pas à proprement parler une maladie, la situation du patient doit être réversible pour en justifier l'initiation.
 Les indications principales sont :
 insuffisance respiratoire aiguë (SDRA, traumatisme thoracique, etc.) ;
 arrêt respiratoire, y compris en cas d'intoxication ;
@@ -526,9 +543,43 @@
 signes persistants et aggravants de détresse respiratoire tels qu'une augmentation du travail respiratoire, tachypnée, etc. ;
 hypoxémie avec pression artérielle partielle en oxygène (PaO2) &lt; 55 mmHg avec fraction inspirée en oxygène (FiO2) = 1.0 ;
 hypotension y compris sepsis, choc, insuffisance cardiaque congestive, etc. ;
-maladies neurologiques telles que la myasthénie, la sclérose latérale amyotrophique, etc.
-Risques associés et complications
-Comme n'importe quel mécanisme de suppléance d'organe, la ventilation mécanique comporte des risques. Ceux-ci peuvent être classés en deux catégories : les risques liés aux propriétés physiques de la ventilation artificielle, et ceux liés aux interfaces.
+maladies neurologiques telles que la myasthénie, la sclérose latérale amyotrophique, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ventilation_mécanique_en_médecine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Risques associés et complications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Comme n'importe quel mécanisme de suppléance d'organe, la ventilation mécanique comporte des risques. Ceux-ci peuvent être classés en deux catégories : les risques liés aux propriétés physiques de la ventilation artificielle, et ceux liés aux interfaces.
 Risques liés à la ventilation mécanique
 Baro-traumatisme : pneumothorax ou traumatisme alvéolaire lié à un excès de pression intrathoracique ;
 Volu-traumatisme ou volo-traumatisme : traumatisme alvéolaire lié à un trop grand volume intra-alvéolaire responsable parfois de fibrose cicatricielle secondaire.
@@ -536,9 +587,43 @@
 Atrophie du diaphragme : la ventilation contrôlée peut entraîner une dégradation rapide des muscles respiratoires en raison de leur manque d'utilisation.
 Risques liés aux interfaces
 Hypoxémie iatrogène et autres complications en rapport avec les prothèses invasives (extubation, obstruction et coudure de sonde d'intubation, intubation sélective, administration de gaz hypoxique, corps étranger, rupture de trachée, sténose trachéale…) ou les masques faciaux (inhalation si vomissements ou saignement, glossoptose (chute en arrière de la langue) ;
-Pneumopathie acquise sous ventilation mécanique : infection pulmonaire nosocomiale acquise sous ventilation. Les germes en cause peuvent être la flore habituelle du patient ou une flore plus résistante aux antibiotiques (staphylocoques, pseudomonas, etc.)
-Respirateur artificiel
-Un respirateur artificiel, communément appelé «ventilateur» par les professionnels de santé, est un appareil médical d'assistance respiratoire. Il vise à assurer une ventilation artificielle des poumons d'un malade lors d'une opération chirurgicale ou lors d'une insuffisance respiratoire aiguë.
+Pneumopathie acquise sous ventilation mécanique : infection pulmonaire nosocomiale acquise sous ventilation. Les germes en cause peuvent être la flore habituelle du patient ou une flore plus résistante aux antibiotiques (staphylocoques, pseudomonas, etc.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ventilation_mécanique_en_médecine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Respirateur artificiel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un respirateur artificiel, communément appelé «ventilateur» par les professionnels de santé, est un appareil médical d'assistance respiratoire. Il vise à assurer une ventilation artificielle des poumons d'un malade lors d'une opération chirurgicale ou lors d'une insuffisance respiratoire aiguë.
 	Exemples de ventilateurs : Modèle (fabricant)
 			Evita4 (Dräger), ventilateur de réanimation.
 			Galileo Gold (Hamilton Medical), ventilateur de réanimation.
@@ -547,8 +632,43 @@
 			Oxylog 3000+ (Dräger), ventilateur pré-hospitalier et de transfert.
 			Vision α (Novalung), ventilateur oscillatoire à haute fréquence.
 			Ventilateur d’anesthésie.
-Interfaces
-Il existe plusieurs façons de prévenir l'obstruction des voies aériennes, l'inhalation ou les fuites d'air :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ventilation_mécanique_en_médecine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Interfaces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il existe plusieurs façons de prévenir l'obstruction des voies aériennes, l'inhalation ou les fuites d'air :
 Masque facial : largement utilisé en premiers secours, le masque facial est aussi utilisé en réanimation pour la VM, notamment pour la ventilation non invasive (VNI) chez les patients conscients ou la pré-oxygénation avant une anesthésie. En revanche, le masque facial ne protège pas de l'inhalation.
 Intubation trachéale : un tube est inséré par le nez (intubation nasotrachéale) ou par la bouche (orotrachéale) jusque dans la trachée. Il s'agit de protéger les voies aériennes pour l'espace de quelques heures (pour une opération chirurgicale par exemple) ou pour une période indéterminée pouvant aller jusqu'à plusieurs jours ou semaines. La plupart des sondes d'intubation possèdent un ballonnet permettant de contrôler l'étanchéité du système et protéger de l'inhalation lors de la ventilation mécanique. Les sondes d'intubation sont des dispositifs inconfortables puisque situés au fond de la gorge, causant douleur et toux. Par conséquent, elles requièrent des sédatifs et analgésiques pour assurer la tolérance du tube par le patient, drogues qui comportent également des risques. L'intubation peut aussi causer des atteintes de la muqueuse pharyngée, des traumatismes buccaux, des sténoses subglottiques, etc.
 Masque laryngé : un dispositif placé au-dessus de la trachée, comme une alternative à l'intubation trachéale. La plupart sont des masques ou des ballonnets que l'on gonfle pour assurer l'isolation de la trachée et permettre l'oxygénation. Les masques modernes sont munis de ports séparés permettant l'aspiration gastrique ou facilitant l'intubation orotrachéale. Ils ne préviennent cependant pas de l'aspiration.
@@ -557,31 +677,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ventilation_mécanique_en_médecine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de la respiration spontanée, l'abaissement du diaphragme et une expansion de la cage thoracique créent une diminution de la pression alvéolaire (pression négative si on la compare à la pression atmosphérique). C'est cette pression négative qui entraîne l'entrée d'air dans les poumons.
 La ventilation mécanique utilisée en médecine est antiphysiologique ; c'est une ventilation dite « en pression positive » (VPP). Cela signifie que l'entrée d'air dans les poumons n'est plus causée par une différence de pression entre l'extérieur et l'intérieur des poumons mais par une augmentation de la pression à l'intérieur des poumons.
@@ -593,31 +715,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ventilation_mécanique_en_médecine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Vocabulaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Volume courant (Vc ou Vt) : volume d'air qui entre et qui sort des poumons à chaque respiration (0,5 l).
 Volume de réserve inspiratoire (VRI) : c'est la quantité de gaz qu'il est encore possible de faire pénétrer dans les poumons après une inspiration normale.
@@ -638,37 +762,39 @@
 PC ou VPC : ventilation en pression contrôlée
 VACI : ventilation en Volume Assisté Contrôlé Intermittente
 BIPAP, Biphasic Intermittent Positive Airway Pressure : c'est un mode de ventilation contrôlée en pression (attention différent de l’appellation qui prête à confusion de ventilation à 2 niveaux de pressions qui induit une confusion avec la VSAI)[pas clair].
-VCRP : volume contrôlé à régulation de pression[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+VCRP : volume contrôlé à régulation de pression.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ventilation_mécanique_en_médecine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Concepts de base</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il existe de multiples modes ventilatoires.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe de multiples modes ventilatoires.
 Pour se repérer il faut se rappeler que la ventilation mécanique tente de suppléer ou assister la ventilation du patient avec deux objectifs :
 Assurer l'oxygénation. Pour cela on peut quel que soit le mode régler la FiO2 et la PEP.
 Permettre l'élimination du gaz carbonique, pour cela il faut distinguer les modes contrôlés où la consigne de ventilation alvéolaire minute choisie par le prescripteur sera toujours délivrée par la machine, des modes spontanés où au contraire il n'y a aucune garantie sur le volume minute délivré. Il résulte dans ce cas de la juste adéquation entre les capacités du patient et les réglages de la machine.
@@ -679,14 +805,126 @@
 soit non invasive (ventilation non invasive, VNI):
 Masque bucconasal, nasal ou facial
 Il n'y a pas de lien strictement obligatoire entre mode et interface ; toutefois il est habituel d'utiliser seulement des modes spontanés en VNI.
-Déclenchement
-Déclenchement inspiratoire
-Le seuil de déclenchement inspiratoire représente la sensibilité avec laquelle la machine reconnaît un effort inspiratoire du patient.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ventilation_mécanique_en_médecine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Concepts de base</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Déclenchement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Déclenchement inspiratoire</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le seuil de déclenchement inspiratoire représente la sensibilité avec laquelle la machine reconnaît un effort inspiratoire du patient.
 Si le patient déclenche la machine (c'est-à-dire produit un effort supérieur au seuil de déclenchement) la machine déclenche un cycle assisté si le patient est en VAC ou spontané si le patient est en VS aide). Son réglage est facultatif en VAC (selon le niveau d'éveil du patient) en revanche il est fondamental en mode spontané.
-Déclenchement expiratoire (sensibilité expiratoire)
-En ventilation contrôlée la fermeture des valves inspiratoires et/ ou l'ouverture des valves expiratoires résultent simplement des paramètres de volume courant et de fréquence. Dans les modes de ventilation spontanés, la fin de l'inspiration (ouverture de la valve expiratoire) survient lorsque le débit inspiratoire a atteint un certain pourcentage du débit inspiratoire de pointe. Par exemple, avec une sensibilité expiratoire a 20 %, une inspiration ayant atteint un débit inspiratoire de pointe de 70 l/min prendra fin lorsque le débit inspiratoire aura diminué à 14 l/min. Plusieurs respirateurs récents permettent d'ajuster ce seuil.
-Alarmes
-Cette fonctionnalité essentielle du ventilateur a deux buts :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ventilation_mécanique_en_médecine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Concepts de base</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Déclenchement</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Déclenchement expiratoire (sensibilité expiratoire)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En ventilation contrôlée la fermeture des valves inspiratoires et/ ou l'ouverture des valves expiratoires résultent simplement des paramètres de volume courant et de fréquence. Dans les modes de ventilation spontanés, la fin de l'inspiration (ouverture de la valve expiratoire) survient lorsque le débit inspiratoire a atteint un certain pourcentage du débit inspiratoire de pointe. Par exemple, avec une sensibilité expiratoire a 20 %, une inspiration ayant atteint un débit inspiratoire de pointe de 70 l/min prendra fin lorsque le débit inspiratoire aura diminué à 14 l/min. Plusieurs respirateurs récents permettent d'ajuster ce seuil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ventilation_mécanique_en_médecine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Concepts de base</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Alarmes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cette fonctionnalité essentielle du ventilateur a deux buts :
 Avertir le personnel clinique lorsque certains paramètres atteignent des valeurs critiques.
 Cesser l'inspiration dans le cas de certaines de ces valeurs.
 Il existe de multiples alarmes. En pratique seulement certaines sont fondamentales à régler. Ce sont :
@@ -700,31 +938,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ventilation_mécanique_en_médecine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Paramètres de base</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Pression expiratoire positive (PEP)
 Fraction inspirée en oxygène (FiO2) : on la règle au minimum pour obtenir une hématose suffisante. Des hauts niveaux de FiO2 sont réputés provoquer des atélectasies. Il faut toutefois anticiper et ne pas hésiter à mettre une FiO2 à 1 en cas d'induction. Idem en cas de transport (période à risque d'extubation).
@@ -737,31 +977,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ventilation_mécanique_en_médecine</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Paramètres avancés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Rapport I/E : on augmente le temps expiratoire en cas d'auto-PEEP importante.
 Débit d'insufflation : il est lié au rapport I/E et au temps de plateau.
@@ -775,62 +1017,66 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ventilation_mécanique_en_médecine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Modes ventilatoires</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un mode ventilatoire est la somme d'un ensemble de caractéristiques. Il existe trois principales catégories : la ventilation en volume contrôlé, la ventilation en pression contrôlée et la ventilation spontanée. Les nomenclatures n’étant pas standardisées, noms et abréviations varient d'un fabricant à l'autre ou d'un pays à l'autre[2].
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un mode ventilatoire est la somme d'un ensemble de caractéristiques. Il existe trois principales catégories : la ventilation en volume contrôlé, la ventilation en pression contrôlée et la ventilation spontanée. Les nomenclatures n’étant pas standardisées, noms et abréviations varient d'un fabricant à l'autre ou d'un pays à l'autre.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ventilation_mécanique_en_médecine</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ventilation_m%C3%A9canique_en_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Choix d'un respirateur</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">En réanimation/soins intensifs. Le choix d'un respirateur performant est indispensable notamment en cas de syndrome de détresse respiratoire aigu.
 Au bloc opératoire les exigences sont relativement moindres. Les modes spontanés ne sont pas systématiquement requis. En revanche les respirateurs doivent permettre de délivrer des anesthésiants volatils halogénés.
